--- a/Dulichsource.xlsx
+++ b/Dulichsource.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thanh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web-tour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F9474E-C1FA-40D9-9CCE-D9A4109C6180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9676E9-34E9-48F7-9EAD-9A44AF7B0059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11505" xr2:uid="{BDA30435-39D6-410E-A285-F5E8F0BA79BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BDA30435-39D6-410E-A285-F5E8F0BA79BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -416,10 +414,7 @@
     <t>Plane, oto</t>
   </si>
   <si>
-    <t>Plane, oto, moto</t>
-  </si>
-  <si>
-    <t>Plane, oto, boat</t>
+    <t>Plane, oto, ship</t>
   </si>
 </sst>
 </file>
@@ -818,24 +813,24 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -911,7 +906,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -949,7 +944,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -984,10 +979,10 @@
         <v>33</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1025,7 +1020,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -1063,7 +1058,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -1101,7 +1096,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -1139,7 +1134,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
@@ -1177,7 +1172,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
@@ -1215,7 +1210,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -1253,7 +1248,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -1291,7 +1286,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -1329,7 +1324,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>83</v>
       </c>
@@ -1367,7 +1362,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>89</v>
       </c>
@@ -1405,7 +1400,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>94</v>
       </c>
@@ -1443,7 +1438,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>99</v>
       </c>
@@ -1481,7 +1476,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>104</v>
       </c>
@@ -1516,10 +1511,10 @@
         <v>108</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>109</v>
       </c>
@@ -1557,7 +1552,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>114</v>
       </c>
@@ -1595,7 +1590,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>119</v>
       </c>

--- a/Dulichsource.xlsx
+++ b/Dulichsource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\web-tour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9676E9-34E9-48F7-9EAD-9A44AF7B0059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EBC06F-DF0D-4A75-B995-D503236958E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BDA30435-39D6-410E-A285-F5E8F0BA79BA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="141">
   <si>
     <t>ID</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Miền Trung</t>
   </si>
   <si>
-    <t>3 ngày 4 đêm</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/dcweof28t/image/upload/v1677038330/web_tour/qn_oezbfx.gif, https://res.cloudinary.com/dcweof28t/image/upload/v1677038330/web_tour/qn4_beaydx.gif, https://res.cloudinary.com/dcweof28t/image/upload/v1677038328/web_tour/qn5_bmp0uo.jpg, https://res.cloudinary.com/dcweof28t/image/upload/v1677038328/web_tour/qn6_j9spxi.jpg, https://res.cloudinary.com/dcweof28t/image/upload/v1677038327/web_tour/qn2_cerycy.gif, https://res.cloudinary.com/dcweof28t/image/upload/v1677038327/web_tour/qn3_ibmeyq.jpg</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>Hà Giang</t>
   </si>
   <si>
-    <t>6 ngày 5 đêm</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/dhqbbuzgq/image/upload/v1678524252/web_tour_hg1_rn0iw2.jpg, https://res.cloudinary.com/dhqbbuzgq/image/upload/v1678524252/web_tour_hg2_cxegcn.jpg,, https://res.cloudinary.com/dhqbbuzgq/image/upload/v1678524253/web_tour_hg3_vdvsob.jpg, https://res.cloudinary.com/dhqbbuzgq/image/upload/v1678524357/web_tour_hg4_insfwb.jpg, https://res.cloudinary.com/dhqbbuzgq/image/upload/v1678524258/web_tour_hg5_jb9be2.jpg, https://res.cloudinary.com/dhqbbuzgq/image/upload/v1678524253/web_tour_hg6_nzm0vw.jpg, https://res.cloudinary.com/dhqbbuzgq/image/upload/v1678524253/web_tour_hg7_oprnas.jpg, https://res.cloudinary.com/dhqbbuzgq/image/upload/v1678524253/web_tour_hg8_l0gr37.jpg</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>Phú Thọ</t>
   </si>
   <si>
-    <t>1 ngày</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/dhqbbuzgq/image/upload/v1678525078/web_tour_pt1_texql5.jpg, https://res.cloudinary.com/dhqbbuzgq/image/upload/v1678525078/web_tour_pt2_n7bdv3.jpg</t>
   </si>
   <si>
@@ -415,6 +406,57 @@
   </si>
   <si>
     <t>Plane, oto, ship</t>
+  </si>
+  <si>
+    <t>Hastag</t>
+  </si>
+  <si>
+    <t>#tu3den5trieu#dulichbien#mientrung#3ngay2dem</t>
+  </si>
+  <si>
+    <t>#duoi1trieu#dulichthongthuong#mienbac#trongngay</t>
+  </si>
+  <si>
+    <t>#tren10trieu#maohiem#mienbac#trongngay</t>
+  </si>
+  <si>
+    <t>#tu1den3trieu#mientrung#dulichthongthuong#trongngay</t>
+  </si>
+  <si>
+    <t>#tu1den3trieu#mienbac#dulichthongthuong#2ngay1dem</t>
+  </si>
+  <si>
+    <t>#tu5den10trieu#mienbac#dulichthongthuong#3ngay2dem</t>
+  </si>
+  <si>
+    <t>#tren10trieu#mienbac#dulichthongthuong#3ngay2dem</t>
+  </si>
+  <si>
+    <t>#tu1den3trieu#dulichthongthuong#mienbac#2ngay1dem</t>
+  </si>
+  <si>
+    <t>#tu1den3trieu#dulichthongthuong#mientrung#3ngay2dem</t>
+  </si>
+  <si>
+    <t>#tu1den3trieu#dulichthongthuong#mientrung#2ngay2dem</t>
+  </si>
+  <si>
+    <t>#tu1den3trieu#dulichthongthuong#miennam#2ngay2dem</t>
+  </si>
+  <si>
+    <t>#tu3den5trieu#dulichthongthuong#miennam#2ngay1dem</t>
+  </si>
+  <si>
+    <t>#duoi1trieu#dulichthongthuong#miennam#trongngay</t>
+  </si>
+  <si>
+    <t>#tu3den5trieu#dulichthongthuong#miennam#3ngay2dem</t>
+  </si>
+  <si>
+    <t>#tu1den3trieu#dulichbien#miennam#2ngay1dem</t>
+  </si>
+  <si>
+    <t>#tu1den3trieu#dulichthongthuong#miennam#2ngay1dem</t>
   </si>
 </sst>
 </file>
@@ -810,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AF851D-883B-4DD0-9CF8-AD94B39267E7}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,10 +869,11 @@
     <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,8 +910,11 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -897,24 +943,27 @@
         <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D3" s="4">
         <v>700000</v>
@@ -926,33 +975,36 @@
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D4" s="4">
         <v>35000000</v>
@@ -964,33 +1016,36 @@
         <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D5" s="4">
         <v>1390000</v>
@@ -1002,33 +1057,36 @@
         <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="4">
         <v>2090000</v>
@@ -1040,33 +1098,36 @@
         <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D7" s="4">
         <v>6599000</v>
@@ -1078,33 +1139,36 @@
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="J7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D8" s="4">
         <v>13099000</v>
@@ -1116,33 +1180,36 @@
         <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D9" s="4">
         <v>750000</v>
@@ -1154,33 +1221,36 @@
         <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D10" s="4">
         <v>700000</v>
@@ -1192,33 +1262,36 @@
         <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D11" s="4">
         <v>2399000</v>
@@ -1230,33 +1303,36 @@
         <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D12" s="4">
         <v>1970000</v>
@@ -1268,33 +1344,36 @@
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D13" s="4">
         <v>1980000</v>
@@ -1306,33 +1385,36 @@
         <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D14" s="4">
         <v>3090000</v>
@@ -1344,33 +1426,36 @@
         <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D15" s="4">
         <v>700000</v>
@@ -1382,33 +1467,36 @@
         <v>10</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D16" s="4">
         <v>4399000</v>
@@ -1420,33 +1508,36 @@
         <v>10</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D17" s="4">
         <v>2590000</v>
@@ -1458,33 +1549,36 @@
         <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D18" s="4">
         <v>1400000</v>
@@ -1496,33 +1590,36 @@
         <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D19" s="4">
         <v>790000</v>
@@ -1534,33 +1631,36 @@
         <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D20" s="4">
         <v>1400000</v>
@@ -1572,33 +1672,36 @@
         <v>10</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D21" s="4">
         <v>2399000</v>
@@ -1610,22 +1713,25 @@
         <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
